--- a/inst/extdata/PDexports(multiple_files)/T1_BLCA/240517_BCa_T1_27.xlsx
+++ b/inst/extdata/PDexports(multiple_files)/T1_BLCA/240517_BCa_T1_27.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tedma\OneDrive\Έγγραφα\itern\ProtE\inst\extdata\PDexports(multiple_files)\T1_BLCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DD2396-46F5-4FF0-B059-22BD33F2DBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB999622-9752-4C72-9D05-B9750EDD3568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="374">
   <si>
     <t># AAs</t>
   </si>
@@ -58,30 +58,18 @@
     <t>14-3-3 protein zeta/delta OS=Homo sapiens GN=YWHAZ PE=1 SV=1 - [1433Z_HUMAN]</t>
   </si>
   <si>
-    <t>40S ribosomal protein S3 OS=Homo sapiens GN=RPS3 PE=1 SV=2 - [RS3_HUMAN]</t>
-  </si>
-  <si>
     <t>6-phosphogluconate dehydrogenase, decarboxylating OS=Homo sapiens GN=PGD PE=1 SV=3 - [6PGD_HUMAN]</t>
   </si>
   <si>
     <t>60 kDa heat shock protein, mitochondrial OS=Homo sapiens GN=HSPD1 PE=1 SV=2 - [CH60_HUMAN]</t>
   </si>
   <si>
-    <t>60S ribosomal protein L13 OS=Homo sapiens GN=RPL13 PE=1 SV=4 - [RL13_HUMAN]</t>
-  </si>
-  <si>
-    <t>60S ribosomal protein L7 OS=Homo sapiens GN=RPL7 PE=1 SV=1 - [RL7_HUMAN]</t>
-  </si>
-  <si>
     <t>78 kDa glucose-regulated protein OS=Homo sapiens GN=HSPA5 PE=1 SV=2 - [GRP78_HUMAN]</t>
   </si>
   <si>
     <t>A5A3E0</t>
   </si>
   <si>
-    <t>ADP-ribosylation factor 3 OS=Homo sapiens GN=ARF3 PE=1 SV=2 - [ARF3_HUMAN]</t>
-  </si>
-  <si>
     <t>ADP/ATP translocase 2 OS=Homo sapiens GN=SLC25A5 PE=1 SV=7 - [ADT2_HUMAN]</t>
   </si>
   <si>
@@ -106,9 +94,6 @@
     <t>Actin-related protein 3 OS=Homo sapiens GN=ACTR3 PE=1 SV=3 - [ARP3_HUMAN]</t>
   </si>
   <si>
-    <t>Alcohol dehydrogenase class-3 OS=Homo sapiens GN=ADH5 PE=1 SV=4 - [ADHX_HUMAN]</t>
-  </si>
-  <si>
     <t>Aldehyde dehydrogenase, dimeric NADP-preferring OS=Homo sapiens GN=ALDH3A1 PE=1 SV=3 - [AL3A1_HUMAN]</t>
   </si>
   <si>
@@ -157,9 +142,6 @@
     <t>Area</t>
   </si>
   <si>
-    <t>Aspartate aminotransferase, mitochondrial OS=Homo sapiens GN=GOT2 PE=1 SV=3 - [AATM_HUMAN]</t>
-  </si>
-  <si>
     <t>B9A064</t>
   </si>
   <si>
@@ -172,9 +154,6 @@
     <t>Calmodulin OS=Homo sapiens GN=CALM1 PE=1 SV=2 - [CALM_HUMAN]</t>
   </si>
   <si>
-    <t>Calpain-1 catalytic subunit OS=Homo sapiens GN=CAPN1 PE=1 SV=1 - [CAN1_HUMAN]</t>
-  </si>
-  <si>
     <t>Calponin-1 OS=Homo sapiens GN=CNN1 PE=1 SV=2 - [CNN1_HUMAN]</t>
   </si>
   <si>
@@ -190,9 +169,6 @@
     <t>Cathepsin D OS=Homo sapiens GN=CTSD PE=1 SV=1 - [CATD_HUMAN]</t>
   </si>
   <si>
-    <t>Chloride intracellular channel protein 1 OS=Homo sapiens GN=CLIC1 PE=1 SV=4 - [CLIC1_HUMAN]</t>
-  </si>
-  <si>
     <t>Clathrin heavy chain 1 OS=Homo sapiens GN=CLTC PE=1 SV=5 - [CLH1_HUMAN]</t>
   </si>
   <si>
@@ -226,9 +202,6 @@
     <t>Coverage</t>
   </si>
   <si>
-    <t>Creatine kinase B-type OS=Homo sapiens GN=CKB PE=1 SV=1 - [KCRB_HUMAN]</t>
-  </si>
-  <si>
     <t>Cysteine and glycine-rich protein 1 OS=Homo sapiens GN=CSRP1 PE=1 SV=3 - [CSRP1_HUMAN]</t>
   </si>
   <si>
@@ -259,9 +232,6 @@
     <t>Ezrin OS=Homo sapiens GN=EZR PE=1 SV=4 - [EZRI_HUMAN]</t>
   </si>
   <si>
-    <t>F-actin-capping protein subunit beta OS=Homo sapiens GN=CAPZB PE=1 SV=4 - [CAPZB_HUMAN]</t>
-  </si>
-  <si>
     <t>Fibrinogen alpha chain OS=Homo sapiens GN=FGA PE=1 SV=2 - [FIBA_HUMAN]</t>
   </si>
   <si>
@@ -292,18 +262,12 @@
     <t>Glucose-6-phosphate isomerase OS=Homo sapiens GN=GPI PE=1 SV=4 - [G6PI_HUMAN]</t>
   </si>
   <si>
-    <t>Glucosidase 2 subunit beta OS=Homo sapiens GN=PRKCSH PE=1 SV=2 - [GLU2B_HUMAN]</t>
-  </si>
-  <si>
     <t>Glutamate dehydrogenase 1, mitochondrial OS=Homo sapiens GN=GLUD1 PE=1 SV=2 - [DHE3_HUMAN]</t>
   </si>
   <si>
     <t>Glutathione S-transferase Mu 1 OS=Homo sapiens GN=GSTM1 PE=1 SV=3 - [GSTM1_HUMAN]</t>
   </si>
   <si>
-    <t>Glutathione S-transferase Mu 3 OS=Homo sapiens GN=GSTM3 PE=1 SV=3 - [GSTM3_HUMAN]</t>
-  </si>
-  <si>
     <t>Glutathione S-transferase P OS=Homo sapiens GN=GSTP1 PE=1 SV=2 - [GSTP1_HUMAN]</t>
   </si>
   <si>
@@ -337,24 +301,15 @@
     <t>Hemoglobin subunit delta OS=Homo sapiens GN=HBD PE=1 SV=2 - [HBD_HUMAN]</t>
   </si>
   <si>
-    <t>Hemopexin OS=Homo sapiens GN=HPX PE=1 SV=2 - [HEMO_HUMAN]</t>
-  </si>
-  <si>
     <t>Heterogeneous nuclear ribonucleoprotein K OS=Homo sapiens GN=HNRNPK PE=1 SV=1 - [HNRPK_HUMAN]</t>
   </si>
   <si>
-    <t>Heterogeneous nuclear ribonucleoprotein M OS=Homo sapiens GN=HNRNPM PE=1 SV=3 - [HNRPM_HUMAN]</t>
-  </si>
-  <si>
     <t>Heterogeneous nuclear ribonucleoprotein U OS=Homo sapiens GN=HNRNPU PE=1 SV=6 - [HNRPU_HUMAN]</t>
   </si>
   <si>
     <t>Heterogeneous nuclear ribonucleoproteins A2/B1 OS=Homo sapiens GN=HNRNPA2B1 PE=1 SV=2 - [ROA2_HUMAN]</t>
   </si>
   <si>
-    <t>Heterogeneous nuclear ribonucleoproteins C1/C2 OS=Homo sapiens GN=HNRNPC PE=1 SV=4 - [HNRPC_HUMAN]</t>
-  </si>
-  <si>
     <t>Histone H1.2 OS=Homo sapiens GN=HIST1H1C PE=1 SV=2 - [H12_HUMAN]</t>
   </si>
   <si>
@@ -418,9 +373,6 @@
     <t>Keratin, type I cytoskeletal 19 OS=Homo sapiens GN=KRT19 PE=1 SV=4 - [K1C19_HUMAN]</t>
   </si>
   <si>
-    <t>Keratin, type I cytoskeletal 20 OS=Homo sapiens GN=KRT20 PE=1 SV=1 - [K1C20_HUMAN]</t>
-  </si>
-  <si>
     <t>Keratin, type II cytoskeletal 1 OS=Homo sapiens GN=KRT1 PE=1 SV=6 - [K2C1_HUMAN]</t>
   </si>
   <si>
@@ -493,15 +445,9 @@
     <t>Neutral alpha-glucosidase AB OS=Homo sapiens GN=GANAB PE=1 SV=3 - [GANAB_HUMAN]</t>
   </si>
   <si>
-    <t>Nucleolin OS=Homo sapiens GN=NCL PE=1 SV=3 - [NUCL_HUMAN]</t>
-  </si>
-  <si>
     <t>Nucleophosmin OS=Homo sapiens GN=NPM1 PE=1 SV=2 - [NPM_HUMAN]</t>
   </si>
   <si>
-    <t>O00299</t>
-  </si>
-  <si>
     <t>O15061</t>
   </si>
   <si>
@@ -529,9 +475,6 @@
     <t>P00367</t>
   </si>
   <si>
-    <t>P00505</t>
-  </si>
-  <si>
     <t>P00558</t>
   </si>
   <si>
@@ -592,9 +535,6 @@
     <t>P02787</t>
   </si>
   <si>
-    <t>P02790</t>
-  </si>
-  <si>
     <t>P04075</t>
   </si>
   <si>
@@ -658,9 +598,6 @@
     <t>P07355</t>
   </si>
   <si>
-    <t>P07384</t>
-  </si>
-  <si>
     <t>P07437</t>
   </si>
   <si>
@@ -673,9 +610,6 @@
     <t>P07900</t>
   </si>
   <si>
-    <t>P07910</t>
-  </si>
-  <si>
     <t>P07951</t>
   </si>
   <si>
@@ -733,9 +667,6 @@
     <t>P11142</t>
   </si>
   <si>
-    <t>P11766</t>
-  </si>
-  <si>
     <t>P12109</t>
   </si>
   <si>
@@ -745,9 +676,6 @@
     <t>P12111</t>
   </si>
   <si>
-    <t>P12277</t>
-  </si>
-  <si>
     <t>P12814</t>
   </si>
   <si>
@@ -769,9 +697,6 @@
     <t>P13796</t>
   </si>
   <si>
-    <t>P14314</t>
-  </si>
-  <si>
     <t>P14618</t>
   </si>
   <si>
@@ -796,9 +721,6 @@
     <t>P17661</t>
   </si>
   <si>
-    <t>P18124</t>
-  </si>
-  <si>
     <t>P18206</t>
   </si>
   <si>
@@ -808,15 +730,9 @@
     <t>P19105</t>
   </si>
   <si>
-    <t>P19338</t>
-  </si>
-  <si>
     <t>P20774</t>
   </si>
   <si>
-    <t>P21266</t>
-  </si>
-  <si>
     <t>P21291</t>
   </si>
   <si>
@@ -829,18 +745,12 @@
     <t>P21796</t>
   </si>
   <si>
-    <t>P21980</t>
-  </si>
-  <si>
     <t>P22626</t>
   </si>
   <si>
     <t>P23284</t>
   </si>
   <si>
-    <t>P23396</t>
-  </si>
-  <si>
     <t>P23528</t>
   </si>
   <si>
@@ -853,9 +763,6 @@
     <t>P25815</t>
   </si>
   <si>
-    <t>P26373</t>
-  </si>
-  <si>
     <t>P27348</t>
   </si>
   <si>
@@ -901,9 +808,6 @@
     <t>P35749</t>
   </si>
   <si>
-    <t>P35900</t>
-  </si>
-  <si>
     <t>P35908</t>
   </si>
   <si>
@@ -922,21 +826,12 @@
     <t>P40926</t>
   </si>
   <si>
-    <t>P40939</t>
-  </si>
-  <si>
     <t>P42330</t>
   </si>
   <si>
-    <t>P45880</t>
-  </si>
-  <si>
     <t>P46940</t>
   </si>
   <si>
-    <t>P47756</t>
-  </si>
-  <si>
     <t>P51884</t>
   </si>
   <si>
@@ -949,9 +844,6 @@
     <t>P52209</t>
   </si>
   <si>
-    <t>P52272</t>
-  </si>
-  <si>
     <t>P52895</t>
   </si>
   <si>
@@ -973,9 +865,6 @@
     <t>P61158</t>
   </si>
   <si>
-    <t>P61204</t>
-  </si>
-  <si>
     <t>P61978</t>
   </si>
   <si>
@@ -1069,9 +958,6 @@
     <t>Profilin-1 OS=Homo sapiens GN=PFN1 PE=1 SV=2 - [PROF1_HUMAN]</t>
   </si>
   <si>
-    <t>Prohibitin-2 OS=Homo sapiens GN=PHB2 PE=1 SV=2 - [PHB2_HUMAN]</t>
-  </si>
-  <si>
     <t>Prolargin OS=Homo sapiens GN=PRELP PE=1 SV=1 - [PRELP_HUMAN]</t>
   </si>
   <si>
@@ -1087,9 +973,6 @@
     <t>Protein S100-P OS=Homo sapiens GN=S100P PE=1 SV=2 - [S100P_HUMAN]</t>
   </si>
   <si>
-    <t>Protein SET OS=Homo sapiens GN=SET PE=1 SV=3 - [SET_HUMAN]</t>
-  </si>
-  <si>
     <t>Protein disulfide-isomerase A3 OS=Homo sapiens GN=PDIA3 PE=1 SV=4 - [PDIA3_HUMAN]</t>
   </si>
   <si>
@@ -1099,9 +982,6 @@
     <t>Protein disulfide-isomerase OS=Homo sapiens GN=P4HB PE=1 SV=3 - [PDIA1_HUMAN]</t>
   </si>
   <si>
-    <t>Protein-glutamine gamma-glutamyltransferase 2 OS=Homo sapiens GN=TGM2 PE=1 SV=2 - [TGM2_HUMAN]</t>
-  </si>
-  <si>
     <t>Pyruvate kinase PKM OS=Homo sapiens GN=PKM PE=1 SV=4 - [KPYM_HUMAN]</t>
   </si>
   <si>
@@ -1114,9 +994,6 @@
     <t>Q01082</t>
   </si>
   <si>
-    <t>Q01105</t>
-  </si>
-  <si>
     <t>Q01995</t>
   </si>
   <si>
@@ -1171,18 +1048,12 @@
     <t>Q96KP4</t>
   </si>
   <si>
-    <t>Q99623</t>
-  </si>
-  <si>
     <t>Q99798</t>
   </si>
   <si>
     <t>Q9BQE3</t>
   </si>
   <si>
-    <t>Q9H0U4</t>
-  </si>
-  <si>
     <t>Q9Y490</t>
   </si>
   <si>
@@ -1192,9 +1063,6 @@
     <t>Ras-related protein Rab-14 OS=Homo sapiens GN=RAB14 PE=1 SV=4 - [RAB14_HUMAN]</t>
   </si>
   <si>
-    <t>Ras-related protein Rab-1B OS=Homo sapiens GN=RAB1B PE=1 SV=1 - [RAB1B_HUMAN]</t>
-  </si>
-  <si>
     <t>Score</t>
   </si>
   <si>
@@ -1234,9 +1102,6 @@
     <t>Transketolase OS=Homo sapiens GN=TKT PE=1 SV=3 - [TKT_HUMAN]</t>
   </si>
   <si>
-    <t>Trifunctional enzyme subunit alpha, mitochondrial OS=Homo sapiens GN=HADHA PE=1 SV=2 - [ECHA_HUMAN]</t>
-  </si>
-  <si>
     <t>Triosephosphate isomerase OS=Homo sapiens GN=TPI1 PE=1 SV=3 - [TPIS_HUMAN]</t>
   </si>
   <si>
@@ -1271,9 +1136,6 @@
   </si>
   <si>
     <t>Voltage-dependent anion-selective channel protein 1 OS=Homo sapiens GN=VDAC1 PE=1 SV=2 - [VDAC1_HUMAN]</t>
-  </si>
-  <si>
-    <t>Voltage-dependent anion-selective channel protein 2 OS=Homo sapiens GN=VDAC2 PE=1 SV=2 - [VDAC2_HUMAN]</t>
   </si>
   <si>
     <t>X-ray repair cross-complementing protein 6 OS=Homo sapiens GN=XRCC6 PE=1 SV=2 - [XRCC6_HUMAN]</t>
@@ -1776,10 +1638,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L205"/>
+  <dimension ref="A1:L182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A875" workbookViewId="0">
-      <selection activeCell="M890" sqref="A206:M890"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="N207" sqref="A183:N207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1798,16 +1660,16 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>391</v>
+        <v>347</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1822,24 +1684,24 @@
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>419</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C2" s="3">
         <v>1057.9371023178101</v>
@@ -1874,10 +1736,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>332</v>
+        <v>295</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C3" s="3">
         <v>1013.6930962801</v>
@@ -1912,10 +1774,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C4" s="3">
         <v>934.26222777366604</v>
@@ -1950,10 +1812,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C5" s="3">
         <v>877.25031507015206</v>
@@ -1988,10 +1850,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>322</v>
+        <v>285</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3">
         <v>854.25479817390396</v>
@@ -2026,10 +1888,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>314</v>
+        <v>278</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C7" s="3">
         <v>762.98273003101303</v>
@@ -2064,10 +1926,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>393</v>
+        <v>349</v>
       </c>
       <c r="C8" s="3">
         <v>746.576136469841</v>
@@ -2102,10 +1964,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C9" s="3">
         <v>617.96590054035198</v>
@@ -2140,10 +2002,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C10" s="3">
         <v>595.21084284782398</v>
@@ -2178,10 +2040,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C11" s="3">
         <v>547.677843570709</v>
@@ -2216,10 +2078,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C12" s="3">
         <v>512.70226919650997</v>
@@ -2254,10 +2116,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>414</v>
+        <v>369</v>
       </c>
       <c r="C13" s="3">
         <v>501.73548245429998</v>
@@ -2292,10 +2154,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="C14" s="3">
         <v>485.92841875553103</v>
@@ -2330,10 +2192,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C15" s="3">
         <v>381.55114531517</v>
@@ -2368,10 +2230,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>347</v>
+        <v>310</v>
       </c>
       <c r="C16" s="3">
         <v>359.34840083122299</v>
@@ -2406,10 +2268,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C17" s="3">
         <v>318.17280697822599</v>
@@ -2444,10 +2306,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>323</v>
+        <v>286</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C18" s="3">
         <v>316.79059624671902</v>
@@ -2482,10 +2344,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>334</v>
+        <v>297</v>
       </c>
       <c r="C19" s="3">
         <v>308.74900782108301</v>
@@ -2520,10 +2382,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>365</v>
+        <v>324</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="C20" s="3">
         <v>303.895816683769</v>
@@ -2558,10 +2420,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>409</v>
+        <v>364</v>
       </c>
       <c r="C21" s="3">
         <v>284.99693346023599</v>
@@ -2596,10 +2458,10 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C22" s="3">
         <v>265.787772655487</v>
@@ -2634,10 +2496,10 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>403</v>
+        <v>359</v>
       </c>
       <c r="C23" s="3">
         <v>258.14923894405399</v>
@@ -2672,10 +2534,10 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>406</v>
+        <v>361</v>
       </c>
       <c r="C24" s="3">
         <v>244.126017332077</v>
@@ -2710,10 +2572,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>381</v>
+        <v>340</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C25" s="3">
         <v>242.774642109871</v>
@@ -2748,10 +2610,10 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="C26" s="3">
         <v>242.24426150322</v>
@@ -2786,10 +2648,10 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C27" s="3">
         <v>241.698631048203</v>
@@ -2824,10 +2686,10 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C28" s="3">
         <v>240.75431084632899</v>
@@ -2862,10 +2724,10 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C29" s="3">
         <v>228.663443803787</v>
@@ -2900,10 +2762,10 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="C30" s="3">
         <v>226.98415946960401</v>
@@ -2938,10 +2800,10 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C31" s="3">
         <v>223.325878024101</v>
@@ -2976,10 +2838,10 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C32" s="3">
         <v>220.05772137641901</v>
@@ -3014,10 +2876,10 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C33" s="3">
         <v>218.60995185375199</v>
@@ -3052,10 +2914,10 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C34" s="3">
         <v>212.771431207657</v>
@@ -3090,10 +2952,10 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C35" s="3">
         <v>212.29717218875899</v>
@@ -3128,10 +2990,10 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C36" s="3">
         <v>211.327407717705</v>
@@ -3166,10 +3028,10 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C37" s="3">
         <v>208.69945895671799</v>
@@ -3204,10 +3066,10 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C38" s="3">
         <v>206.616727590561</v>
@@ -3242,10 +3104,10 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>345</v>
+        <v>308</v>
       </c>
       <c r="C39" s="3">
         <v>202.049402594566</v>
@@ -3280,10 +3142,10 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>412</v>
+        <v>367</v>
       </c>
       <c r="C40" s="3">
         <v>196.125443220139</v>
@@ -3318,7 +3180,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>325</v>
+        <v>288</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>11</v>
@@ -3356,10 +3218,10 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>326</v>
+        <v>289</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>408</v>
+        <v>363</v>
       </c>
       <c r="C42" s="3">
         <v>194.55541086196899</v>
@@ -3394,10 +3256,10 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>413</v>
+        <v>368</v>
       </c>
       <c r="C43" s="3">
         <v>194.22129821777301</v>
@@ -3432,10 +3294,10 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C44" s="3">
         <v>185.85970294475601</v>
@@ -3470,10 +3332,10 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>372</v>
+        <v>331</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="C45" s="3">
         <v>181.86473429202999</v>
@@ -3508,10 +3370,10 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>346</v>
+        <v>309</v>
       </c>
       <c r="C46" s="3">
         <v>179.059532165527</v>
@@ -3546,10 +3408,10 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>385</v>
+        <v>343</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>410</v>
+        <v>365</v>
       </c>
       <c r="C47" s="3">
         <v>178.505885124207</v>
@@ -3584,10 +3446,10 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C48" s="3">
         <v>173.91486179828601</v>
@@ -3622,10 +3484,10 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C49" s="3">
         <v>173.37924742698701</v>
@@ -3660,10 +3522,10 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>371</v>
+        <v>330</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>337</v>
+        <v>300</v>
       </c>
       <c r="C50" s="3">
         <v>169.919405221939</v>
@@ -3698,10 +3560,10 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C51" s="3">
         <v>166.67614853382099</v>
@@ -3736,10 +3598,10 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C52" s="3">
         <v>161.37795519828799</v>
@@ -3774,10 +3636,10 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C53" s="3">
         <v>160.51598596572899</v>
@@ -3812,10 +3674,10 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>356</v>
+        <v>317</v>
       </c>
       <c r="C54" s="3">
         <v>158.26620602607699</v>
@@ -3850,10 +3712,10 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>366</v>
+        <v>325</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C55" s="3">
         <v>154.32644236087799</v>
@@ -3888,10 +3750,10 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>405</v>
+        <v>360</v>
       </c>
       <c r="C56" s="3">
         <v>153.78580844402299</v>
@@ -3926,10 +3788,10 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C57" s="3">
         <v>151.66531467437699</v>
@@ -3964,10 +3826,10 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C58" s="3">
         <v>148.58534681796999</v>
@@ -4002,10 +3864,10 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C59" s="3">
         <v>146.20867133140601</v>
@@ -4040,10 +3902,10 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C60" s="3">
         <v>145.39979445934301</v>
@@ -4078,10 +3940,10 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C61" s="3">
         <v>145.00874698162099</v>
@@ -4116,10 +3978,10 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="C62" s="3">
         <v>140.229016304016</v>
@@ -4154,10 +4016,10 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C63" s="3">
         <v>139.730584979057</v>
@@ -4192,10 +4054,10 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C64" s="3">
         <v>138.121056437492</v>
@@ -4230,10 +4092,10 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C65" s="3">
         <v>138.033341646194</v>
@@ -4268,10 +4130,10 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>328</v>
+        <v>291</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>411</v>
+        <v>366</v>
       </c>
       <c r="C66" s="3">
         <v>135.88594079017599</v>
@@ -4306,10 +4168,10 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>377</v>
+        <v>336</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="C67" s="3">
         <v>131.72793447971301</v>
@@ -4344,10 +4206,10 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C68" s="3">
         <v>131.62533080577899</v>
@@ -4382,10 +4244,10 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>415</v>
+        <v>370</v>
       </c>
       <c r="C69" s="3">
         <v>131.037665247917</v>
@@ -4420,10 +4282,10 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C70" s="3">
         <v>128.93983829021499</v>
@@ -4458,10 +4320,10 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C71" s="3">
         <v>128.218622207642</v>
@@ -4496,10 +4358,10 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C72" s="3">
         <v>127.34100472927101</v>
@@ -4534,10 +4396,10 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C73" s="3">
         <v>126.70222389698</v>
@@ -4572,10 +4434,10 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C74" s="3">
         <v>120.77645218372299</v>
@@ -4610,10 +4472,10 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>380</v>
+        <v>339</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C75" s="3">
         <v>120.749872088432</v>
@@ -4648,10 +4510,10 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C76" s="3">
         <v>119.67487275600401</v>
@@ -4686,10 +4548,10 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>324</v>
+        <v>287</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>335</v>
+        <v>298</v>
       </c>
       <c r="C77" s="3">
         <v>118.83888030052201</v>
@@ -4724,10 +4586,10 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>348</v>
+        <v>311</v>
       </c>
       <c r="C78" s="3">
         <v>118.809877038002</v>
@@ -4762,7 +4624,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>321</v>
+        <v>284</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>6</v>
@@ -4800,7 +4662,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>5</v>
@@ -4838,10 +4700,10 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>407</v>
+        <v>362</v>
       </c>
       <c r="C81" s="3">
         <v>114.293153047562</v>
@@ -4876,10 +4738,10 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>342</v>
+        <v>305</v>
       </c>
       <c r="C82" s="3">
         <v>111.04207944869999</v>
@@ -4914,10 +4776,10 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C83" s="3">
         <v>107.73873031139399</v>
@@ -4952,10 +4814,10 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C84" s="3">
         <v>107.57672345638299</v>
@@ -4990,10 +4852,10 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C85" s="3">
         <v>107.331684589386</v>
@@ -5028,10 +4890,10 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C86" s="3">
         <v>107.21097803115801</v>
@@ -5066,10 +4928,10 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C87" s="3">
         <v>105.763289928436</v>
@@ -5104,10 +4966,10 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C88" s="3">
         <v>103.796901941299</v>
@@ -5142,10 +5004,10 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C89" s="3">
         <v>103.691456794739</v>
@@ -5180,10 +5042,10 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C90" s="3">
         <v>103.598007798195</v>
@@ -5218,7 +5080,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>10</v>
@@ -5256,10 +5118,10 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C92" s="3">
         <v>101.887073993683</v>
@@ -5294,10 +5156,10 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>341</v>
+        <v>304</v>
       </c>
       <c r="C93" s="3">
         <v>101.656589031219</v>
@@ -5332,10 +5194,10 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C94" s="3">
         <v>99.328816890716595</v>
@@ -5370,10 +5232,10 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>387</v>
+        <v>344</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>398</v>
+        <v>354</v>
       </c>
       <c r="C95" s="3">
         <v>97.958725452423096</v>
@@ -5408,10 +5270,10 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="C96" s="3">
         <v>96.506956934928894</v>
@@ -5446,10 +5308,10 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>399</v>
+        <v>355</v>
       </c>
       <c r="C97" s="3">
         <v>95.517048954963698</v>
@@ -5484,10 +5346,10 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="C98" s="3">
         <v>94.6774662733078</v>
@@ -5522,10 +5384,10 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="C99" s="3">
         <v>94.256176829338102</v>
@@ -5560,10 +5422,10 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C100" s="3">
         <v>94.135205745696993</v>
@@ -5598,10 +5460,10 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C101" s="3">
         <v>94.0243244171143</v>
@@ -5636,10 +5498,10 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C102" s="3">
         <v>93.529208302497906</v>
@@ -5674,10 +5536,10 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C103" s="3">
         <v>91.349586486816406</v>
@@ -5712,10 +5574,10 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>388</v>
+        <v>345</v>
       </c>
       <c r="C104" s="3">
         <v>91.1409415006638</v>
@@ -5750,10 +5612,10 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C105" s="3">
         <v>90.926994085311904</v>
@@ -5788,7 +5650,7 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>319</v>
+        <v>282</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>8</v>
@@ -5826,10 +5688,10 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C107" s="3">
         <v>90.587752223014803</v>
@@ -5864,10 +5726,10 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C108" s="3">
         <v>89.288374304771395</v>
@@ -5902,10 +5764,10 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C109" s="3">
         <v>88.894847869873004</v>
@@ -5940,10 +5802,10 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C110" s="3">
         <v>88.458259224891705</v>
@@ -5978,10 +5840,10 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>362</v>
+        <v>322</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C111" s="3">
         <v>88.3180477619171</v>
@@ -6016,10 +5878,10 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C112" s="3">
         <v>87.681335210800199</v>
@@ -6054,10 +5916,10 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="C113" s="3">
         <v>87.5961368083954</v>
@@ -6092,10 +5954,10 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C114" s="3">
         <v>87.239488482475295</v>
@@ -6130,10 +5992,10 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C115" s="3">
         <v>86.546907186508193</v>
@@ -6168,10 +6030,10 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C116" s="3">
         <v>86.278497219085693</v>
@@ -6206,10 +6068,10 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C117" s="3">
         <v>85.644604563713102</v>
@@ -6244,10 +6106,10 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="C118" s="3">
         <v>84.758119463920593</v>
@@ -6282,10 +6144,10 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>320</v>
+        <v>283</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C119" s="3">
         <v>84.091153025627094</v>
@@ -6320,10 +6182,10 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="C120" s="3">
         <v>83.831139326095595</v>
@@ -6358,10 +6220,10 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C121" s="3">
         <v>83.716518640518203</v>
@@ -6396,10 +6258,10 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>318</v>
+        <v>281</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C122" s="3">
         <v>82.825365304946899</v>
@@ -6434,10 +6296,10 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C123" s="3">
         <v>81.764821767807007</v>
@@ -6472,10 +6334,10 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C124" s="3">
         <v>80.826096177101107</v>
@@ -6510,7 +6372,7 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>9</v>
@@ -6548,7 +6410,7 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>367</v>
+        <v>326</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>7</v>
@@ -6586,10 +6448,10 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C127" s="3">
         <v>77.899613857269301</v>
@@ -6624,10 +6486,10 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C128" s="3">
         <v>77.585534214973507</v>
@@ -6662,10 +6524,10 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>330</v>
+        <v>293</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C129" s="3">
         <v>76.489086389541598</v>
@@ -6700,10 +6562,10 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C130" s="3">
         <v>76.306833982467694</v>
@@ -6738,10 +6600,10 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C131" s="3">
         <v>75.367311596870394</v>
@@ -6776,10 +6638,10 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C132" s="3">
         <v>74.848262667655902</v>
@@ -6814,10 +6676,10 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C133" s="3">
         <v>74.084992051124601</v>
@@ -6852,10 +6714,10 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="C134" s="3">
         <v>72.678271770477295</v>
@@ -6890,10 +6752,10 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C135" s="3">
         <v>72.072299122810406</v>
@@ -6928,10 +6790,10 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>418</v>
+        <v>372</v>
       </c>
       <c r="C136" s="3">
         <v>71.8149143457413</v>
@@ -6966,10 +6828,10 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="C137" s="3">
         <v>71.478404164314298</v>
@@ -7004,10 +6866,10 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>368</v>
+        <v>327</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C138" s="3">
         <v>70.997668504714994</v>
@@ -7042,10 +6904,10 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>344</v>
+        <v>307</v>
       </c>
       <c r="C139" s="3">
         <v>69.128498554229694</v>
@@ -7080,10 +6942,10 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="C140" s="3">
         <v>68.400883913040204</v>
@@ -7118,10 +6980,10 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="C141" s="3">
         <v>67.4291206598282</v>
@@ -7156,10 +7018,10 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>382</v>
+        <v>341</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C142" s="3">
         <v>65.725840568542495</v>
@@ -7194,10 +7056,10 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C143" s="3">
         <v>64.631365776061998</v>
@@ -7232,10 +7094,10 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="C144" s="3">
         <v>63.246928572654703</v>
@@ -7270,10 +7132,10 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>397</v>
+        <v>353</v>
       </c>
       <c r="C145" s="3">
         <v>63.243899703025797</v>
@@ -7308,10 +7170,10 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>374</v>
+        <v>333</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>395</v>
+        <v>351</v>
       </c>
       <c r="C146" s="3">
         <v>62.522469639778102</v>
@@ -7346,10 +7208,10 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>369</v>
+        <v>328</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C147" s="3">
         <v>62.319177389144897</v>
@@ -7384,10 +7246,10 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="C148" s="3">
         <v>62.206063747405999</v>
@@ -7422,10 +7284,10 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C149" s="3">
         <v>62.086960077285802</v>
@@ -7460,10 +7322,10 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>401</v>
+        <v>357</v>
       </c>
       <c r="C150" s="3">
         <v>61.308128714561498</v>
@@ -7498,10 +7360,10 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C151" s="3">
         <v>60.385476827621503</v>
@@ -7536,10 +7398,10 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>384</v>
+        <v>342</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C152" s="3">
         <v>60.072970271110499</v>
@@ -7574,10 +7436,10 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>361</v>
+        <v>321</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C153" s="3">
         <v>59.949616074562101</v>
@@ -7612,10 +7474,10 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>336</v>
+        <v>299</v>
       </c>
       <c r="C154" s="3">
         <v>59.918019175529501</v>
@@ -7650,10 +7512,10 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>376</v>
+        <v>335</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="C155" s="3">
         <v>57.780488014221199</v>
@@ -7688,10 +7550,10 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C156" s="3">
         <v>57.735208749771097</v>
@@ -7726,10 +7588,10 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>370</v>
+        <v>329</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>352</v>
+        <v>314</v>
       </c>
       <c r="C157" s="3">
         <v>57.428389430046103</v>
@@ -7764,10 +7626,10 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>375</v>
+        <v>334</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C158" s="3">
         <v>54.3730708360672</v>
@@ -7802,10 +7664,10 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C159" s="3">
         <v>53.810956478118896</v>
@@ -7840,10 +7702,10 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C160" s="3">
         <v>53.784455657005303</v>
@@ -7878,10 +7740,10 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>373</v>
+        <v>332</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C161" s="3">
         <v>53.504737615585299</v>
@@ -7916,10 +7778,10 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C162" s="3">
         <v>53.294656038284302</v>
@@ -7954,10 +7816,10 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>402</v>
+        <v>358</v>
       </c>
       <c r="C163" s="3">
         <v>52.178598642349201</v>
@@ -7992,10 +7854,10 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="C164" s="3">
         <v>51.758918762207003</v>
@@ -8030,10 +7892,10 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>416</v>
+        <v>371</v>
       </c>
       <c r="C165" s="3">
         <v>51.226232051849401</v>
@@ -8068,10 +7930,10 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C166" s="3">
         <v>50.596185088157704</v>
@@ -8106,10 +7968,10 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>392</v>
+        <v>348</v>
       </c>
       <c r="C167" s="3">
         <v>48.7223621606827</v>
@@ -8144,10 +8006,10 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C168" s="3">
         <v>48.349119663238497</v>
@@ -8182,10 +8044,10 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>340</v>
+        <v>303</v>
       </c>
       <c r="C169" s="3">
         <v>48.184584975242601</v>
@@ -8220,10 +8082,10 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C170" s="3">
         <v>48.058623433113098</v>
@@ -8258,10 +8120,10 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="C171" s="3">
         <v>47.467392206192002</v>
@@ -8296,10 +8158,10 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C172" s="3">
         <v>47.159250736236601</v>
@@ -8334,10 +8196,10 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>378</v>
+        <v>337</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>357</v>
+        <v>318</v>
       </c>
       <c r="C173" s="3">
         <v>47.121982693672201</v>
@@ -8372,10 +8234,10 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C174" s="3">
         <v>46.452165603637702</v>
@@ -8410,10 +8272,10 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>363</v>
+        <v>323</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>396</v>
+        <v>352</v>
       </c>
       <c r="C175" s="3">
         <v>45.865251183509798</v>
@@ -8448,10 +8310,10 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C176" s="3">
         <v>45.470084190368702</v>
@@ -8486,10 +8348,10 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>389</v>
+        <v>346</v>
       </c>
       <c r="C177" s="3">
         <v>44.978168964386001</v>
@@ -8524,10 +8386,10 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C178" s="3">
         <v>44.863138079643299</v>
@@ -8562,10 +8424,10 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C179" s="3">
         <v>44.276292562484699</v>
@@ -8600,10 +8462,10 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C180" s="3">
         <v>43.314668536186197</v>
@@ -8638,10 +8500,10 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>394</v>
+        <v>350</v>
       </c>
       <c r="C181" s="3">
         <v>42.830437183380099</v>
@@ -8676,10 +8538,10 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C182" s="3">
         <v>42.202063798904398</v>
@@ -8710,880 +8572,6 @@
       </c>
       <c r="L182" s="3">
         <v>5.88427734375</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A183" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C183" s="3">
-        <v>42.044898509979198</v>
-      </c>
-      <c r="D183" s="4">
-        <v>12.75</v>
-      </c>
-      <c r="E183" s="5">
-        <v>1</v>
-      </c>
-      <c r="F183" s="5">
-        <v>7</v>
-      </c>
-      <c r="G183" s="5">
-        <v>7</v>
-      </c>
-      <c r="H183" s="5">
-        <v>19</v>
-      </c>
-      <c r="I183" s="6">
-        <v>8968195.4739583302</v>
-      </c>
-      <c r="J183" s="5">
-        <v>714</v>
-      </c>
-      <c r="K183" s="7">
-        <v>81.838191904660206</v>
-      </c>
-      <c r="L183" s="3">
-        <v>5.66845703125</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A184" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C184" s="3">
-        <v>42.0357650518417</v>
-      </c>
-      <c r="D184" s="4">
-        <v>27.98</v>
-      </c>
-      <c r="E184" s="5">
-        <v>1</v>
-      </c>
-      <c r="F184" s="5">
-        <v>7</v>
-      </c>
-      <c r="G184" s="5">
-        <v>7</v>
-      </c>
-      <c r="H184" s="5">
-        <v>17</v>
-      </c>
-      <c r="I184" s="6">
-        <v>13390538.8333333</v>
-      </c>
-      <c r="J184" s="5">
-        <v>243</v>
-      </c>
-      <c r="K184" s="7">
-        <v>26.671431654660001</v>
-      </c>
-      <c r="L184" s="3">
-        <v>9.65673828125</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A185" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C185" s="3">
-        <v>41.530460715293898</v>
-      </c>
-      <c r="D185" s="4">
-        <v>19.5</v>
-      </c>
-      <c r="E185" s="5">
-        <v>1</v>
-      </c>
-      <c r="F185" s="5">
-        <v>4</v>
-      </c>
-      <c r="G185" s="5">
-        <v>4</v>
-      </c>
-      <c r="H185" s="5">
-        <v>15</v>
-      </c>
-      <c r="I185" s="6">
-        <v>16911221.088541701</v>
-      </c>
-      <c r="J185" s="5">
-        <v>241</v>
-      </c>
-      <c r="K185" s="7">
-        <v>26.905749344659998</v>
-      </c>
-      <c r="L185" s="3">
-        <v>5.17333984375</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A186" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C186" s="3">
-        <v>41.528106689453097</v>
-      </c>
-      <c r="D186" s="4">
-        <v>24.17</v>
-      </c>
-      <c r="E186" s="5">
-        <v>1</v>
-      </c>
-      <c r="F186" s="5">
-        <v>5</v>
-      </c>
-      <c r="G186" s="5">
-        <v>5</v>
-      </c>
-      <c r="H186" s="5">
-        <v>16</v>
-      </c>
-      <c r="I186" s="6">
-        <v>10896168.34375</v>
-      </c>
-      <c r="J186" s="5">
-        <v>211</v>
-      </c>
-      <c r="K186" s="7">
-        <v>24.24652727466</v>
-      </c>
-      <c r="L186" s="3">
-        <v>11.64892578125</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A187" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C187" s="3">
-        <v>41.1732726097107</v>
-      </c>
-      <c r="D187" s="4">
-        <v>15.91</v>
-      </c>
-      <c r="E187" s="5">
-        <v>1</v>
-      </c>
-      <c r="F187" s="5">
-        <v>7</v>
-      </c>
-      <c r="G187" s="5">
-        <v>7</v>
-      </c>
-      <c r="H187" s="5">
-        <v>18</v>
-      </c>
-      <c r="I187" s="6">
-        <v>8872908.515625</v>
-      </c>
-      <c r="J187" s="5">
-        <v>528</v>
-      </c>
-      <c r="K187" s="7">
-        <v>59.387823884660101</v>
-      </c>
-      <c r="L187" s="3">
-        <v>4.41162109375</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A188" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C188" s="3">
-        <v>40.190140128135702</v>
-      </c>
-      <c r="D188" s="4">
-        <v>14.29</v>
-      </c>
-      <c r="E188" s="5">
-        <v>1</v>
-      </c>
-      <c r="F188" s="5">
-        <v>4</v>
-      </c>
-      <c r="G188" s="5">
-        <v>4</v>
-      </c>
-      <c r="H188" s="5">
-        <v>20</v>
-      </c>
-      <c r="I188" s="6">
-        <v>12800624.09375</v>
-      </c>
-      <c r="J188" s="5">
-        <v>462</v>
-      </c>
-      <c r="K188" s="7">
-        <v>51.643275274659999</v>
-      </c>
-      <c r="L188" s="3">
-        <v>7.02001953125</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A189" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C189" s="3">
-        <v>39.950245857238798</v>
-      </c>
-      <c r="D189" s="4">
-        <v>19.77</v>
-      </c>
-      <c r="E189" s="5">
-        <v>1</v>
-      </c>
-      <c r="F189" s="5">
-        <v>7</v>
-      </c>
-      <c r="G189" s="5">
-        <v>7</v>
-      </c>
-      <c r="H189" s="5">
-        <v>15</v>
-      </c>
-      <c r="I189" s="6">
-        <v>8539328.625</v>
-      </c>
-      <c r="J189" s="5">
-        <v>430</v>
-      </c>
-      <c r="K189" s="7">
-        <v>47.487318754660002</v>
-      </c>
-      <c r="L189" s="3">
-        <v>9.01220703125</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A190" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="C190" s="3">
-        <v>39.769975423812902</v>
-      </c>
-      <c r="D190" s="4">
-        <v>30.35</v>
-      </c>
-      <c r="E190" s="5">
-        <v>23</v>
-      </c>
-      <c r="F190" s="5">
-        <v>3</v>
-      </c>
-      <c r="G190" s="5">
-        <v>5</v>
-      </c>
-      <c r="H190" s="5">
-        <v>17</v>
-      </c>
-      <c r="I190" s="6">
-        <v>17569582.072916701</v>
-      </c>
-      <c r="J190" s="5">
-        <v>201</v>
-      </c>
-      <c r="K190" s="7">
-        <v>22.157229834660001</v>
-      </c>
-      <c r="L190" s="3">
-        <v>5.73193359375</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A191" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C191" s="3">
-        <v>38.173067331314101</v>
-      </c>
-      <c r="D191" s="4">
-        <v>15.24</v>
-      </c>
-      <c r="E191" s="5">
-        <v>1</v>
-      </c>
-      <c r="F191" s="5">
-        <v>5</v>
-      </c>
-      <c r="G191" s="5">
-        <v>5</v>
-      </c>
-      <c r="H191" s="5">
-        <v>16</v>
-      </c>
-      <c r="I191" s="6">
-        <v>6114419.9583333302</v>
-      </c>
-      <c r="J191" s="5">
-        <v>374</v>
-      </c>
-      <c r="K191" s="7">
-        <v>39.698381404659997</v>
-      </c>
-      <c r="L191" s="3">
-        <v>7.48876953125</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A192" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C192" s="3">
-        <v>37.355896234512301</v>
-      </c>
-      <c r="D192" s="4">
-        <v>37.270000000000003</v>
-      </c>
-      <c r="E192" s="5">
-        <v>1</v>
-      </c>
-      <c r="F192" s="5">
-        <v>8</v>
-      </c>
-      <c r="G192" s="5">
-        <v>8</v>
-      </c>
-      <c r="H192" s="5">
-        <v>15</v>
-      </c>
-      <c r="I192" s="6">
-        <v>7921349.15625</v>
-      </c>
-      <c r="J192" s="5">
-        <v>381</v>
-      </c>
-      <c r="K192" s="7">
-        <v>42.617320224659998</v>
-      </c>
-      <c r="L192" s="3">
-        <v>5.59228515625</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A193" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C193" s="3">
-        <v>37.208969712257399</v>
-      </c>
-      <c r="D193" s="4">
-        <v>41.99</v>
-      </c>
-      <c r="E193" s="5">
-        <v>3</v>
-      </c>
-      <c r="F193" s="5">
-        <v>4</v>
-      </c>
-      <c r="G193" s="5">
-        <v>6</v>
-      </c>
-      <c r="H193" s="5">
-        <v>15</v>
-      </c>
-      <c r="I193" s="6">
-        <v>6872945.9791666698</v>
-      </c>
-      <c r="J193" s="5">
-        <v>181</v>
-      </c>
-      <c r="K193" s="7">
-        <v>20.587730944659999</v>
-      </c>
-      <c r="L193" s="3">
-        <v>7.43017578125</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A194" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C194" s="3">
-        <v>37.045572876930201</v>
-      </c>
-      <c r="D194" s="4">
-        <v>31.45</v>
-      </c>
-      <c r="E194" s="5">
-        <v>1</v>
-      </c>
-      <c r="F194" s="5">
-        <v>7</v>
-      </c>
-      <c r="G194" s="5">
-        <v>7</v>
-      </c>
-      <c r="H194" s="5">
-        <v>19</v>
-      </c>
-      <c r="I194" s="6">
-        <v>10706331.484375</v>
-      </c>
-      <c r="J194" s="5">
-        <v>248</v>
-      </c>
-      <c r="K194" s="7">
-        <v>29.207199084660001</v>
-      </c>
-      <c r="L194" s="3">
-        <v>10.65283203125</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A195" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="C195" s="3">
-        <v>36.930963277816801</v>
-      </c>
-      <c r="D195" s="4">
-        <v>14.63</v>
-      </c>
-      <c r="E195" s="5">
-        <v>1</v>
-      </c>
-      <c r="F195" s="5">
-        <v>4</v>
-      </c>
-      <c r="G195" s="5">
-        <v>4</v>
-      </c>
-      <c r="H195" s="5">
-        <v>15</v>
-      </c>
-      <c r="I195" s="6">
-        <v>11947713.3645833</v>
-      </c>
-      <c r="J195" s="5">
-        <v>294</v>
-      </c>
-      <c r="K195" s="7">
-        <v>31.546547764660001</v>
-      </c>
-      <c r="L195" s="3">
-        <v>7.56201171875</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A196" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C196" s="3">
-        <v>36.811743140220599</v>
-      </c>
-      <c r="D196" s="4">
-        <v>14.79</v>
-      </c>
-      <c r="E196" s="5">
-        <v>1</v>
-      </c>
-      <c r="F196" s="5">
-        <v>9</v>
-      </c>
-      <c r="G196" s="5">
-        <v>9</v>
-      </c>
-      <c r="H196" s="5">
-        <v>19</v>
-      </c>
-      <c r="I196" s="6">
-        <v>8829420.7604166698</v>
-      </c>
-      <c r="J196" s="5">
-        <v>710</v>
-      </c>
-      <c r="K196" s="7">
-        <v>76.568362784660394</v>
-      </c>
-      <c r="L196" s="3">
-        <v>4.70361328125</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C197" s="3">
-        <v>36.7407484054565</v>
-      </c>
-      <c r="D197" s="4">
-        <v>20.94</v>
-      </c>
-      <c r="E197" s="5">
-        <v>1</v>
-      </c>
-      <c r="F197" s="5">
-        <v>4</v>
-      </c>
-      <c r="G197" s="5">
-        <v>4</v>
-      </c>
-      <c r="H197" s="5">
-        <v>12</v>
-      </c>
-      <c r="I197" s="6">
-        <v>8134858.6979166698</v>
-      </c>
-      <c r="J197" s="5">
-        <v>277</v>
-      </c>
-      <c r="K197" s="7">
-        <v>31.330770634659999</v>
-      </c>
-      <c r="L197" s="3">
-        <v>5.59228515625</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A198" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="C198" s="3">
-        <v>35.909754276275599</v>
-      </c>
-      <c r="D198" s="4">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="E198" s="5">
-        <v>1</v>
-      </c>
-      <c r="F198" s="5">
-        <v>5</v>
-      </c>
-      <c r="G198" s="5">
-        <v>5</v>
-      </c>
-      <c r="H198" s="5">
-        <v>14</v>
-      </c>
-      <c r="I198" s="6">
-        <v>7302893.71875</v>
-      </c>
-      <c r="J198" s="5">
-        <v>299</v>
-      </c>
-      <c r="K198" s="7">
-        <v>33.275917704660003</v>
-      </c>
-      <c r="L198" s="3">
-        <v>9.83251953125</v>
-      </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A199" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C199" s="3">
-        <v>35.835684061050401</v>
-      </c>
-      <c r="D199" s="4">
-        <v>21.98</v>
-      </c>
-      <c r="E199" s="5">
-        <v>1</v>
-      </c>
-      <c r="F199" s="5">
-        <v>9</v>
-      </c>
-      <c r="G199" s="5">
-        <v>9</v>
-      </c>
-      <c r="H199" s="5">
-        <v>19</v>
-      </c>
-      <c r="I199" s="6">
-        <v>9537529.4375</v>
-      </c>
-      <c r="J199" s="5">
-        <v>687</v>
-      </c>
-      <c r="K199" s="7">
-        <v>77.279672724660102</v>
-      </c>
-      <c r="L199" s="3">
-        <v>5.22412109375</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A200" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C200" s="3">
-        <v>35.578289270401001</v>
-      </c>
-      <c r="D200" s="4">
-        <v>18.63</v>
-      </c>
-      <c r="E200" s="5">
-        <v>4</v>
-      </c>
-      <c r="F200" s="5">
-        <v>7</v>
-      </c>
-      <c r="G200" s="5">
-        <v>7</v>
-      </c>
-      <c r="H200" s="5">
-        <v>18</v>
-      </c>
-      <c r="I200" s="6">
-        <v>12650820.2395833</v>
-      </c>
-      <c r="J200" s="5">
-        <v>306</v>
-      </c>
-      <c r="K200" s="7">
-        <v>33.64954055466</v>
-      </c>
-      <c r="L200" s="3">
-        <v>5.08447265625</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A201" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C201" s="3">
-        <v>35.317059516906703</v>
-      </c>
-      <c r="D201" s="4">
-        <v>7.55</v>
-      </c>
-      <c r="E201" s="5">
-        <v>2</v>
-      </c>
-      <c r="F201" s="5">
-        <v>1</v>
-      </c>
-      <c r="G201" s="5">
-        <v>3</v>
-      </c>
-      <c r="H201" s="5">
-        <v>11</v>
-      </c>
-      <c r="I201" s="6">
-        <v>23520529.494791701</v>
-      </c>
-      <c r="J201" s="5">
-        <v>424</v>
-      </c>
-      <c r="K201" s="7">
-        <v>48.456922004660001</v>
-      </c>
-      <c r="L201" s="3">
-        <v>5.69384765625</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A202" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C202" s="3">
-        <v>35.1956305503845</v>
-      </c>
-      <c r="D202" s="4">
-        <v>12.33</v>
-      </c>
-      <c r="E202" s="5">
-        <v>1</v>
-      </c>
-      <c r="F202" s="5">
-        <v>7</v>
-      </c>
-      <c r="G202" s="5">
-        <v>7</v>
-      </c>
-      <c r="H202" s="5">
-        <v>12</v>
-      </c>
-      <c r="I202" s="6">
-        <v>6769022.5677083302</v>
-      </c>
-      <c r="J202" s="5">
-        <v>730</v>
-      </c>
-      <c r="K202" s="7">
-        <v>77.464318504660099</v>
-      </c>
-      <c r="L202" s="3">
-        <v>8.70458984375</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A203" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C203" s="3">
-        <v>35.072377681732199</v>
-      </c>
-      <c r="D203" s="4">
-        <v>17.93</v>
-      </c>
-      <c r="E203" s="5">
-        <v>2</v>
-      </c>
-      <c r="F203" s="5">
-        <v>4</v>
-      </c>
-      <c r="G203" s="5">
-        <v>4</v>
-      </c>
-      <c r="H203" s="5">
-        <v>13</v>
-      </c>
-      <c r="I203" s="6">
-        <v>12064268</v>
-      </c>
-      <c r="J203" s="5">
-        <v>290</v>
-      </c>
-      <c r="K203" s="7">
-        <v>33.468707014659998</v>
-      </c>
-      <c r="L203" s="3">
-        <v>4.32275390625</v>
-      </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A204" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C204" s="3">
-        <v>34.4154953956604</v>
-      </c>
-      <c r="D204" s="4">
-        <v>20.440000000000001</v>
-      </c>
-      <c r="E204" s="5">
-        <v>1</v>
-      </c>
-      <c r="F204" s="5">
-        <v>4</v>
-      </c>
-      <c r="G204" s="5">
-        <v>4</v>
-      </c>
-      <c r="H204" s="5">
-        <v>14</v>
-      </c>
-      <c r="I204" s="6">
-        <v>6433413.8229166698</v>
-      </c>
-      <c r="J204" s="5">
-        <v>225</v>
-      </c>
-      <c r="K204" s="7">
-        <v>26.54213890466</v>
-      </c>
-      <c r="L204" s="3">
-        <v>5.54150390625</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A205" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="C205" s="3">
-        <v>34.195936083793598</v>
-      </c>
-      <c r="D205" s="4">
-        <v>14.02</v>
-      </c>
-      <c r="E205" s="5">
-        <v>1</v>
-      </c>
-      <c r="F205" s="5">
-        <v>7</v>
-      </c>
-      <c r="G205" s="5">
-        <v>7</v>
-      </c>
-      <c r="H205" s="5">
-        <v>14</v>
-      </c>
-      <c r="I205" s="6">
-        <v>6774723.703125</v>
-      </c>
-      <c r="J205" s="5">
-        <v>763</v>
-      </c>
-      <c r="K205" s="7">
-        <v>82.946878284660002</v>
-      </c>
-      <c r="L205" s="3">
-        <v>9.04150390625</v>
       </c>
     </row>
   </sheetData>
